--- a/Interfaces.xlsx
+++ b/Interfaces.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20925" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20925" windowHeight="9510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="3" r:id="rId2"/>
+    <sheet name="stdole2.tlb" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="113">
   <si>
     <t xml:space="preserve">Picture </t>
   </si>
@@ -226,6 +227,144 @@
   </si>
   <si>
     <t>CoClass</t>
+  </si>
+  <si>
+    <t>stdole2.tlb</t>
+  </si>
+  <si>
+    <t>Extends</t>
+  </si>
+  <si>
+    <t>Functions-Typ</t>
+  </si>
+  <si>
+    <t>Rückgabetyp</t>
+  </si>
+  <si>
+    <t>HRESULT</t>
+  </si>
+  <si>
+    <t>&amp;H6001000D</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>&amp;H60010007</t>
+  </si>
+  <si>
+    <t>&amp;H60010000</t>
+  </si>
+  <si>
+    <t>&amp;H60010004</t>
+  </si>
+  <si>
+    <t>&amp;H60010001</t>
+  </si>
+  <si>
+    <t>&amp;H60010009</t>
+  </si>
+  <si>
+    <t>Interface Method</t>
+  </si>
+  <si>
+    <t>&amp;H6001000B</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>&amp;H60010005</t>
+  </si>
+  <si>
+    <t>&amp;H6001000C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>&amp;H60010008</t>
+  </si>
+  <si>
+    <t>&amp;H6001000E</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>&amp;H60010002</t>
+  </si>
+  <si>
+    <t>&amp;H60010003</t>
+  </si>
+  <si>
+    <t>&amp;H60010006</t>
+  </si>
+  <si>
+    <t>&amp;H6001000A</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>{7BF80980-BF32-101A-8BBB-00AA00300CAB}</t>
+  </si>
+  <si>
+    <t>{7BF80981-BF32-101A-8BBB-00AA00300CAB}</t>
+  </si>
+  <si>
+    <t>DispInterface</t>
+  </si>
+  <si>
+    <t>datentyp</t>
+  </si>
+  <si>
+    <t>tagBITMAP</t>
+  </si>
+  <si>
+    <t>OLE_HANDLE</t>
+  </si>
+  <si>
+    <t>bmTyp</t>
+  </si>
+  <si>
+    <t>---&gt;??? hDC?</t>
+  </si>
+  <si>
+    <t>bmWidth</t>
+  </si>
+  <si>
+    <t>bmHeight</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>bmWidthBytes</t>
+  </si>
+  <si>
+    <t>OLE_XSIZE_HIMETRIC</t>
+  </si>
+  <si>
+    <t>bmPlanes</t>
+  </si>
+  <si>
+    <t>OLE_YSIZE_HIMETRIC</t>
+  </si>
+  <si>
+    <t>bmBitsPixel</t>
+  </si>
+  <si>
+    <t>bmBits</t>
+  </si>
+  <si>
+    <t>LPVOID</t>
+  </si>
+  <si>
+    <t>Funktionsname</t>
+  </si>
+  <si>
+    <t>Reihenfolge</t>
   </si>
 </sst>
 </file>
@@ -1663,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,4 +2161,708 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="str">
+        <f>C7</f>
+        <v>Handle</v>
+      </c>
+      <c r="K5" t="str">
+        <f>D7</f>
+        <v>Property Get</v>
+      </c>
+      <c r="L5">
+        <f>G7</f>
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="J6" t="str">
+        <f>C9</f>
+        <v>hPal</v>
+      </c>
+      <c r="K6" t="str">
+        <f>D9</f>
+        <v>Property Get</v>
+      </c>
+      <c r="L6">
+        <f>G9</f>
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="str">
+        <f>C16</f>
+        <v>Type</v>
+      </c>
+      <c r="K7" t="str">
+        <f>D16</f>
+        <v>Property Get</v>
+      </c>
+      <c r="L7">
+        <f>G16</f>
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="str">
+        <f>C17</f>
+        <v>Width</v>
+      </c>
+      <c r="K8" t="str">
+        <f>D17</f>
+        <v>Property Get</v>
+      </c>
+      <c r="L8">
+        <f>G17</f>
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="str">
+        <f>C8</f>
+        <v>Height</v>
+      </c>
+      <c r="K9" t="str">
+        <f>D8</f>
+        <v>Property Get</v>
+      </c>
+      <c r="L9">
+        <f>G8</f>
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="J10" t="str">
+        <f>C12</f>
+        <v>Render</v>
+      </c>
+      <c r="K10" t="str">
+        <f>D12</f>
+        <v>Interface Method</v>
+      </c>
+      <c r="L10">
+        <f>G12</f>
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" t="str">
+        <f>C18</f>
+        <v>hPal</v>
+      </c>
+      <c r="K11" t="str">
+        <f>D18</f>
+        <v>Property Let</v>
+      </c>
+      <c r="L11">
+        <f>G18</f>
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="J12" t="str">
+        <f>C6</f>
+        <v>CurDC</v>
+      </c>
+      <c r="K12" t="str">
+        <f>D6</f>
+        <v>Property Get</v>
+      </c>
+      <c r="L12">
+        <f>G6</f>
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" t="str">
+        <f>C14</f>
+        <v>SelectPicture</v>
+      </c>
+      <c r="K13" t="str">
+        <f>D14</f>
+        <v>Interface Method</v>
+      </c>
+      <c r="L13">
+        <f>G14</f>
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="J14" t="str">
+        <f>C10</f>
+        <v>KeepOriginalFormat</v>
+      </c>
+      <c r="K14" t="str">
+        <f>D10</f>
+        <v>Property Get</v>
+      </c>
+      <c r="L14">
+        <f>G10</f>
+        <v>9</v>
+      </c>
+      <c r="M14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" t="str">
+        <f>C19</f>
+        <v>KeepOriginalFormat</v>
+      </c>
+      <c r="K15" t="str">
+        <f>D19</f>
+        <v>Property Let</v>
+      </c>
+      <c r="L15" t="str">
+        <f>G19</f>
+        <v>A</v>
+      </c>
+      <c r="M15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="str">
+        <f>C11</f>
+        <v>PictureChanged</v>
+      </c>
+      <c r="K16" t="str">
+        <f>D11</f>
+        <v>Interface Method</v>
+      </c>
+      <c r="L16" t="str">
+        <f>G11</f>
+        <v>B</v>
+      </c>
+      <c r="M16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="str">
+        <f>C13</f>
+        <v>SaveAsFile</v>
+      </c>
+      <c r="K17" t="str">
+        <f>D13</f>
+        <v>Interface Method</v>
+      </c>
+      <c r="L17" t="str">
+        <f>G13</f>
+        <v>C</v>
+      </c>
+      <c r="M17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="J18" t="str">
+        <f>C5</f>
+        <v>Attributes</v>
+      </c>
+      <c r="K18" t="str">
+        <f>D5</f>
+        <v>Property Get</v>
+      </c>
+      <c r="L18" t="str">
+        <f>G5</f>
+        <v>D</v>
+      </c>
+      <c r="M18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" t="str">
+        <f>C15</f>
+        <v>SetHdc</v>
+      </c>
+      <c r="K19" t="str">
+        <f>D15</f>
+        <v>Interface Method</v>
+      </c>
+      <c r="L19" t="str">
+        <f>G15</f>
+        <v>E</v>
+      </c>
+      <c r="M19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>95</v>
+      </c>
+      <c r="M27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>